--- a/data/GermanyERM.xlsx
+++ b/data/GermanyERM.xlsx
@@ -6,8 +6,8 @@
     <x:workbookView xWindow="0" yWindow="0" windowWidth="18060" windowHeight="10365" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="International Financial Statis" sheetId="1" r:id="Rbf460576189c483c"/>
-    <x:sheet name="Tooltip" sheetId="2" r:id="Rdc5e0f3c10334d1e"/>
+    <x:sheet name="International Financial Statis" sheetId="1" r:id="Re512833b72bc48cd"/>
+    <x:sheet name="Tooltip" sheetId="2" r:id="Rbd33d63deb3c467d"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -123,6 +123,7 @@
     <x:col min="1" max="1" width="10" customWidth="1"/>
     <x:col min="2" max="2" width="17" customWidth="1"/>
     <x:col min="3" max="3" width="29" customWidth="1"/>
+    <x:col min="4" max="4" width="29" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row ht="23.25" customHeight="1">
@@ -131,11 +132,15 @@
       </x:c>
       <x:c s="0"/>
       <x:c s="0"/>
+      <x:c s="0"/>
     </x:row>
     <x:row ht="17.25" customHeight="1">
       <x:c s="0"/>
       <x:c s="0"/>
       <x:c s="5" t="str">
+        <x:v>Economic Activity, Industrial Production, Index</x:v>
+      </x:c>
+      <x:c s="5" t="str">
         <x:v>Prices, Consumer Price Index, All items, Index</x:v>
       </x:c>
     </x:row>
@@ -147,6 +152,9 @@
         <x:v>1980</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>66.6430007110663</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>52.1769444748521</x:v>
       </x:c>
     </x:row>
@@ -158,6 +166,9 @@
         <x:v>Jan 1980</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>68.4790647828221</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>50.7724330580604</x:v>
       </x:c>
     </x:row>
@@ -169,6 +180,9 @@
         <x:v>Feb 1980</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>68.6874514499983</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>51.4018324103012</x:v>
       </x:c>
     </x:row>
@@ -180,6 +194,9 @@
         <x:v>Mar 1980</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>73.7047612058559</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>51.6116397289401</x:v>
       </x:c>
     </x:row>
@@ -191,6 +208,9 @@
         <x:v>Apr 1980</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>69.6812955549925</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>51.8913715186207</x:v>
       </x:c>
     </x:row>
@@ -202,6 +222,9 @@
         <x:v>May 1980</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>67.9821427303251</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>52.1711146101392</x:v>
       </x:c>
     </x:row>
@@ -213,6 +236,9 @@
         <x:v>Jun 1980</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>67.7016222168187</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>52.3109861558984</x:v>
       </x:c>
     </x:row>
@@ -224,6 +250,9 @@
         <x:v>Jul 1980</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>65.3692945188082</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>52.3809219287781</x:v>
       </x:c>
     </x:row>
@@ -235,6 +264,9 @@
         <x:v>Aug 1980</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>61.1294273289542</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>52.4508577016577</x:v>
       </x:c>
     </x:row>
@@ -246,6 +278,9 @@
         <x:v>Sep 1980</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>69.1122396561652</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>52.4508577016577</x:v>
       </x:c>
     </x:row>
@@ -257,6 +292,9 @@
         <x:v>Oct 1980</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>73.4242406923495</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>52.5207934745373</x:v>
       </x:c>
     </x:row>
@@ -268,6 +306,9 @@
         <x:v>Nov 1980</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>71.1640468406692</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>52.8704610370975</x:v>
       </x:c>
     </x:row>
@@ -279,6 +320,9 @@
         <x:v>Dec 1980</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>67.485220677828</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>53.2900643725374</x:v>
       </x:c>
     </x:row>
@@ -290,6 +334,9 @@
         <x:v>1981</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>65.4248740917792</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>55.487176506199</x:v>
       </x:c>
     </x:row>
@@ -301,6 +348,9 @@
         <x:v>Jan 1981</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>64.2391975929681</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>53.7796147826947</x:v>
       </x:c>
     </x:row>
@@ -312,6 +362,9 @@
         <x:v>Feb 1981</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>66.3551237519879</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>54.1992181181345</x:v>
       </x:c>
     </x:row>
@@ -323,6 +376,9 @@
         <x:v>Mar 1981</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>71.8693555603425</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>54.6188214535744</x:v>
       </x:c>
     </x:row>
@@ -334,6 +390,9 @@
         <x:v>Apr 1981</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>67.5573545241583</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>54.8985645450929</x:v>
       </x:c>
     </x:row>
@@ -345,6 +404,9 @@
         <x:v>May 1981</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>66.2829899056577</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>55.1782963347735</x:v>
       </x:c>
     </x:row>
@@ -356,6 +418,9 @@
         <x:v>Jun 1981</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>65.9303355458211</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>55.3881036534123</x:v>
       </x:c>
     </x:row>
@@ -367,6 +432,9 @@
         <x:v>Jul 1981</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>64.1670637466379</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>55.7377712159725</x:v>
       </x:c>
     </x:row>
@@ -378,6 +446,9 @@
         <x:v>Aug 1981</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>59.8550627104537</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>55.8776427617318</x:v>
       </x:c>
     </x:row>
@@ -389,6 +460,9 @@
         <x:v>Sep 1981</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>70.1702027356751</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>56.1573858532503</x:v>
       </x:c>
     </x:row>
@@ -400,6 +474,9 @@
         <x:v>Oct 1981</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>73.9211627448466</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>56.4371176429309</x:v>
       </x:c>
     </x:row>
@@ -411,6 +488,9 @@
         <x:v>Nov 1981</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>71.1640468406692</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>56.7168607344494</x:v>
       </x:c>
     </x:row>
@@ -422,6 +502,9 @@
         <x:v>Dec 1981</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>67.3489678569821</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>56.8567209783707</x:v>
       </x:c>
     </x:row>
@@ -433,6 +516,9 @@
         <x:v>1982</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>63.2978525708207</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>58.3952844362268</x:v>
       </x:c>
     </x:row>
@@ -444,6 +530,9 @@
         <x:v>Jan 1982</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>63.9506622076473</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>57.3462600866902</x:v>
       </x:c>
     </x:row>
@@ -455,6 +544,9 @@
         <x:v>Feb 1982</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>64.7281047736508</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>57.4162071614077</x:v>
       </x:c>
     </x:row>
@@ -466,6 +558,9 @@
         <x:v>Mar 1982</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>72.013623253003</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>57.4162071614077</x:v>
       </x:c>
     </x:row>
@@ -477,6 +572,9 @@
         <x:v>Apr 1982</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>67.6294883704885</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>57.6260031782087</x:v>
       </x:c>
     </x:row>
@@ -488,6 +586,9 @@
         <x:v>May 1982</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>65.8582016994909</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>58.0456065136485</x:v>
       </x:c>
     </x:row>
@@ -499,6 +600,9 @@
         <x:v>Jun 1982</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>65.2250268261478</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>58.6750284695651</x:v>
       </x:c>
     </x:row>
@@ -510,6 +614,9 @@
         <x:v>Jul 1982</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>59.9271965567839</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>58.7449529406068</x:v>
       </x:c>
     </x:row>
@@ -521,6 +628,9 @@
         <x:v>Aug 1982</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>57.5948688587735</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>58.6750284695651</x:v>
       </x:c>
     </x:row>
@@ -532,6 +642,9 @@
         <x:v>Sep 1982</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>66.7799119581548</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>58.8848244863661</x:v>
       </x:c>
     </x:row>
@@ -543,6 +656,9 @@
         <x:v>Oct 1982</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>68.8317191426588</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>59.1645675778845</x:v>
       </x:c>
     </x:row>
@@ -554,6 +670,9 @@
         <x:v>Nov 1982</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>66.6356442654943</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>59.3044278218059</x:v>
       </x:c>
     </x:row>
@@ -565,6 +684,9 @@
         <x:v>Dec 1982</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>63.3896211806345</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>59.4442993675652</x:v>
       </x:c>
     </x:row>
@@ -576,6 +698,9 @@
         <x:v>1983</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>63.7218306490611</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>60.3184833430829</x:v>
       </x:c>
     </x:row>
@@ -587,6 +712,9 @@
         <x:v>Jan 1983</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>61.4820816887909</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>59.7240424590836</x:v>
       </x:c>
     </x:row>
@@ -598,6 +726,9 @@
         <x:v>Feb 1983</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>62.0431227158037</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>59.7240424590836</x:v>
       </x:c>
     </x:row>
@@ -609,6 +740,9 @@
         <x:v>Mar 1983</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>69.4648940160019</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>59.7240424590836</x:v>
       </x:c>
     </x:row>
@@ -620,6 +754,9 @@
         <x:v>Apr 1983</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>65.2971606724781</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>59.8639140048429</x:v>
       </x:c>
     </x:row>
@@ -631,6 +768,9 @@
         <x:v>May 1983</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>64.1670637466379</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>60.0037742487642</x:v>
       </x:c>
     </x:row>
@@ -642,6 +782,9 @@
         <x:v>Jun 1983</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>66.7077781118246</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>60.2135815674031</x:v>
       </x:c>
     </x:row>
@@ -653,6 +796,9 @@
         <x:v>Jul 1983</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>60.3519847629507</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>60.423388886042</x:v>
       </x:c>
     </x:row>
@@ -664,6 +810,9 @@
         <x:v>Aug 1983</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>58.3001775784467</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>60.6331849028429</x:v>
       </x:c>
     </x:row>
@@ -675,6 +824,9 @@
         <x:v>Sep 1983</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>68.903852988989</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>60.7730564486022</x:v>
       </x:c>
     </x:row>
@@ -686,6 +838,9 @@
         <x:v>Oct 1983</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>71.5888350468361</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>60.7730564486022</x:v>
       </x:c>
     </x:row>
@@ -697,6 +852,9 @@
         <x:v>Nov 1983</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>71.091912994339</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>60.9129279943614</x:v>
       </x:c>
     </x:row>
@@ -708,6 +866,9 @@
         <x:v>Dec 1983</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>68.406930936492</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>61.0527882382828</x:v>
       </x:c>
     </x:row>
@@ -719,6 +880,9 @@
         <x:v>1984</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>65.6485322523189</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>61.7696214339205</x:v>
       </x:c>
     </x:row>
@@ -730,6 +894,9 @@
         <x:v>Jan 1984</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>65.2250268261479</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>61.2625955569216</x:v>
       </x:c>
     </x:row>
@@ -741,6 +908,9 @@
         <x:v>Feb 1984</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>66.9963134971455</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>61.4724028755605</x:v>
       </x:c>
     </x:row>
@@ -752,6 +922,9 @@
         <x:v>Mar 1984</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>71.2361806869995</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>61.5423386484401</x:v>
       </x:c>
     </x:row>
@@ -763,6 +936,9 @@
         <x:v>Apr 1984</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>66.5715252909786</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>61.6122744213198</x:v>
       </x:c>
     </x:row>
@@ -774,6 +950,9 @@
         <x:v>May 1984</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>66.7077781118246</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>61.6821988923615</x:v>
       </x:c>
     </x:row>
@@ -785,6 +964,9 @@
         <x:v>Jun 1984</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>59.9271965567839</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>61.8920062110003</x:v>
       </x:c>
     </x:row>
@@ -796,6 +978,9 @@
         <x:v>Jul 1984</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>64.663985799135</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>61.8220704381207</x:v>
       </x:c>
     </x:row>
@@ -807,6 +992,9 @@
         <x:v>Aug 1984</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>60.7767729691176</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>61.6821988923615</x:v>
       </x:c>
     </x:row>
@@ -818,6 +1006,9 @@
         <x:v>Sep 1984</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>70.3866042746658</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>61.7521346652411</x:v>
       </x:c>
     </x:row>
@@ -829,6 +1020,9 @@
         <x:v>Oct 1984</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>75.6123006976996</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>62.1018135296392</x:v>
       </x:c>
     </x:row>
@@ -840,6 +1034,9 @@
         <x:v>Nov 1984</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>73.4242406923496</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>62.1717493025188</x:v>
       </x:c>
     </x:row>
@@ -851,6 +1048,9 @@
         <x:v>Dec 1984</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>70.098068889345</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>62.2416737735606</x:v>
       </x:c>
     </x:row>
@@ -862,6 +1062,9 @@
         <x:v>1985</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>68.7972501820035</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>63.045925743478</x:v>
       </x:c>
     </x:row>
@@ -873,6 +1076,9 @@
         <x:v>Jan 1985</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>67.4130868314979</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>62.5913526379587</x:v>
       </x:c>
     </x:row>
@@ -884,6 +1090,9 @@
         <x:v>Feb 1985</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>67.9821427303252</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>62.8710957294772</x:v>
       </x:c>
     </x:row>
@@ -895,6 +1104,9 @@
         <x:v>Mar 1985</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>74.4822037718595</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>63.0808917462781</x:v>
       </x:c>
     </x:row>
@@ -906,6 +1118,9 @@
         <x:v>Apr 1985</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>70.0339499148292</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>63.1508275191578</x:v>
       </x:c>
     </x:row>
@@ -917,6 +1132,9 @@
         <x:v>May 1985</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>69.3927601696717</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>63.1508275191578</x:v>
       </x:c>
     </x:row>
@@ -928,6 +1146,9 @@
         <x:v>Jun 1985</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>69.961816068499</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>63.1508275191578</x:v>
       </x:c>
     </x:row>
@@ -939,6 +1160,9 @@
         <x:v>Jul 1985</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>68.7595852963287</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>63.1508275191578</x:v>
       </x:c>
     </x:row>
@@ -950,6 +1174,9 @@
         <x:v>Aug 1985</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>62.7564463072915</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>62.9410202005189</x:v>
       </x:c>
     </x:row>
@@ -961,6 +1188,9 @@
         <x:v>Sep 1985</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>73.1437201788432</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>63.0109559733985</x:v>
       </x:c>
     </x:row>
@@ -972,6 +1202,9 @@
         <x:v>Oct 1985</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>79.0025914752199</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>63.0808917462781</x:v>
       </x:c>
     </x:row>
@@ -983,6 +1216,9 @@
         <x:v>Nov 1985</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>77.0309330088606</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>63.1508275191578</x:v>
       </x:c>
     </x:row>
@@ -994,6 +1230,9 @@
         <x:v>Dec 1985</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>70.5949909418421</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>63.2207632920374</x:v>
       </x:c>
     </x:row>
@@ -1005,6 +1244,9 @@
         <x:v>1986</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>70.0594601488752</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>62.9643358920914</x:v>
       </x:c>
     </x:row>
@@ -1016,6 +1258,9 @@
         <x:v>Jan 1986</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>69.2565073488258</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>63.4305593088383</x:v>
       </x:c>
     </x:row>
@@ -1027,6 +1272,9 @@
         <x:v>Feb 1986</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>70.3866042746659</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>63.3606348377966</x:v>
       </x:c>
     </x:row>
@@ -1038,6 +1286,9 @@
         <x:v>Mar 1986</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>75.3317801841932</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>63.1508275191578</x:v>
       </x:c>
     </x:row>
@@ -1049,6 +1300,9 @@
         <x:v>Apr 1986</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>74.0574155656927</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>63.1508275191578</x:v>
       </x:c>
     </x:row>
@@ -1060,6 +1314,9 @@
         <x:v>May 1986</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>69.8175483758386</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>63.1508275191578</x:v>
       </x:c>
     </x:row>
@@ -1071,6 +1328,9 @@
         <x:v>Jun 1986</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>72.0777422275188</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>63.1508275191578</x:v>
       </x:c>
     </x:row>
@@ -1082,6 +1342,9 @@
         <x:v>Jul 1986</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>70.1702027356753</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>62.9410202005189</x:v>
       </x:c>
     </x:row>
@@ -1093,6 +1356,9 @@
         <x:v>Aug 1986</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>63.9506622076474</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>62.7312241837179</x:v>
       </x:c>
     </x:row>
@@ -1104,6 +1370,9 @@
         <x:v>Sep 1986</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>74.4100699255293</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>62.8011599565975</x:v>
       </x:c>
     </x:row>
@@ -1115,6 +1384,9 @@
         <x:v>Oct 1986</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>79.1468591678805</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>62.5913526379587</x:v>
       </x:c>
     </x:row>
@@ -1126,6 +1398,9 @@
         <x:v>Nov 1986</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>76.1092227501967</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>62.521416865079</x:v>
       </x:c>
     </x:row>
@@ -1137,6 +1412,9 @@
         <x:v>Dec 1986</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>71.4445673541758</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>62.5913526379587</x:v>
       </x:c>
     </x:row>
@@ -1148,6 +1426,9 @@
         <x:v>1987</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>70.3297947950927</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>63.1216876137913</x:v>
       </x:c>
     </x:row>
@@ -1159,6 +1440,9 @@
         <x:v>Jan 1987</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>67.6294883704886</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>62.9410202005189</x:v>
       </x:c>
     </x:row>
@@ -1170,6 +1454,9 @@
         <x:v>Feb 1987</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>70.3866042746659</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>63.0109559733985</x:v>
       </x:c>
     </x:row>
@@ -1181,6 +1468,9 @@
         <x:v>Mar 1987</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>76.1092227501967</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>63.0109559733985</x:v>
       </x:c>
     </x:row>
@@ -1192,6 +1482,9 @@
         <x:v>Apr 1987</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>72.9273186398526</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>63.1508275191578</x:v>
       </x:c>
     </x:row>
@@ -1203,6 +1496,9 @@
         <x:v>May 1987</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>71.7972217140124</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>63.1508275191578</x:v>
       </x:c>
     </x:row>
@@ -1214,6 +1510,9 @@
         <x:v>Jun 1987</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>71.5888350468363</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>63.2207632920374</x:v>
       </x:c>
     </x:row>
@@ -1225,6 +1524,9 @@
         <x:v>Jul 1987</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>68.4069309364921</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>63.2207632920374</x:v>
       </x:c>
     </x:row>
@@ -1236,6 +1538,9 @@
         <x:v>Aug 1987</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>64.9445063126415</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>63.1508275191578</x:v>
       </x:c>
     </x:row>
@@ -1247,6 +1552,9 @@
         <x:v>Sep 1987</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>74.9069919780264</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>63.0808917462781</x:v>
       </x:c>
     </x:row>
@@ -1258,6 +1566,9 @@
         <x:v>Oct 1987</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>79.9964355802141</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>63.1508275191578</x:v>
       </x:c>
     </x:row>
@@ -1269,6 +1580,9 @@
         <x:v>Nov 1987</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>77.8083755748641</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>63.1508275191578</x:v>
       </x:c>
     </x:row>
@@ -1280,6 +1594,9 @@
         <x:v>Dec 1987</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>72.9994524861827</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>63.2207632920374</x:v>
       </x:c>
     </x:row>
@@ -1291,6 +1608,9 @@
         <x:v>1988</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>72.8613458585925</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>63.9259329909699</x:v>
       </x:c>
     </x:row>
@@ -1302,6 +1622,9 @@
         <x:v>Jan 1988</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>69.6812955549926</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>63.500495081718</x:v>
       </x:c>
     </x:row>
@@ -1313,6 +1636,9 @@
         <x:v>Feb 1988</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>72.2941437665094</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>63.6403666274772</x:v>
       </x:c>
     </x:row>
@@ -1324,6 +1650,9 @@
         <x:v>Mar 1988</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>79.0747253215501</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>63.6403666274772</x:v>
       </x:c>
     </x:row>
@@ -1335,6 +1664,9 @@
         <x:v>Apr 1988</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>73.7768950521862</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>63.7802381732365</x:v>
       </x:c>
     </x:row>
@@ -1346,6 +1678,9 @@
         <x:v>May 1988</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>72.7910658190065</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>63.9201097189957</x:v>
       </x:c>
     </x:row>
@@ -1357,6 +1692,9 @@
         <x:v>Jun 1988</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>75.4039140305233</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>63.9900341900374</x:v>
       </x:c>
     </x:row>
@@ -1368,6 +1706,9 @@
         <x:v>Jul 1988</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>69.4648940160019</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>63.9900341900374</x:v>
       </x:c>
     </x:row>
@@ -1379,6 +1720,9 @@
         <x:v>Aug 1988</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>69.2565073488257</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>63.9201097189957</x:v>
       </x:c>
     </x:row>
@@ -1390,6 +1734,9 @@
         <x:v>Sep 1988</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>78.6499371153832</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>63.9900341900374</x:v>
       </x:c>
     </x:row>
@@ -1401,6 +1748,9 @@
         <x:v>Oct 1988</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>82.5371499454006</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>64.059981264755</x:v>
       </x:c>
     </x:row>
@@ -1412,6 +1762,9 @@
         <x:v>Nov 1988</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>80.9822648133936</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>64.2697772815559</x:v>
       </x:c>
     </x:row>
@@ -1423,6 +1776,9 @@
         <x:v>Dec 1988</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>76.8866653162001</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>64.4096488273152</x:v>
       </x:c>
     </x:row>
@@ -1434,6 +1790,9 @@
         <x:v>1989</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>76.4502489796001</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>65.7034380219124</x:v>
       </x:c>
     </x:row>
@@ -1445,6 +1804,9 @@
         <x:v>Jan 1989</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>74.1295494120228</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>64.9691237085142</x:v>
       </x:c>
     </x:row>
@@ -1456,6 +1818,9 @@
         <x:v>Feb 1989</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>74.7627242853658</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>65.1789310271531</x:v>
       </x:c>
     </x:row>
@@ -1467,6 +1832,9 @@
         <x:v>Mar 1989</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>81.9039750720576</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>65.2488668000327</x:v>
       </x:c>
     </x:row>
@@ -1478,6 +1846,9 @@
         <x:v>Apr 1989</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>79.7800340412233</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>65.6684701354726</x:v>
       </x:c>
     </x:row>
@@ -1489,6 +1860,9 @@
         <x:v>May 1989</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>73.9852817193623</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>65.7384059083522</x:v>
       </x:c>
     </x:row>
@@ -1500,6 +1874,9 @@
         <x:v>Jun 1989</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>79.8521678875535</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>65.8083416812318</x:v>
       </x:c>
     </x:row>
@@ -1511,6 +1888,9 @@
         <x:v>Jul 1989</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>74.69860531085</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>65.7384059083522</x:v>
       </x:c>
     </x:row>
@@ -1522,6 +1902,9 @@
         <x:v>Aug 1989</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>71.6529540213519</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>65.7384059083522</x:v>
       </x:c>
     </x:row>
@@ -1533,6 +1916,9 @@
         <x:v>Sep 1989</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>81.9761089183878</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>65.8083416812318</x:v>
       </x:c>
     </x:row>
@@ -1544,6 +1930,9 @@
         <x:v>Oct 1989</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>87.2739391877518</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>66.0181376980328</x:v>
       </x:c>
     </x:row>
@@ -1555,6 +1944,9 @@
         <x:v>Nov 1989</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>84.7332248225651</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>66.158009243792</x:v>
       </x:c>
     </x:row>
@@ -1566,6 +1958,9 @@
         <x:v>Dec 1989</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>80.4212237863809</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>66.3678165624309</x:v>
       </x:c>
     </x:row>
@@ -1577,6 +1972,9 @@
         <x:v>1990</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>80.4054328562741</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>67.4751103626825</x:v>
       </x:c>
     </x:row>
@@ -1588,6 +1986,9 @@
         <x:v>Jan 1990</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>78.3694166018768</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>66.7174841249911</x:v>
       </x:c>
     </x:row>
@@ -1599,6 +2000,9 @@
         <x:v>Feb 1990</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>78.5858181408675</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>66.9972272165096</x:v>
       </x:c>
     </x:row>
@@ -1610,6 +2014,9 @@
         <x:v>Mar 1990</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>87.1296714950913</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>66.9972272165096</x:v>
       </x:c>
     </x:row>
@@ -1621,6 +2028,9 @@
         <x:v>Apr 1990</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>79.7800340412234</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>67.137087460431</x:v>
       </x:c>
     </x:row>
@@ -1632,6 +2042,9 @@
         <x:v>May 1990</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>81.2708001987146</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>67.2769590061902</x:v>
       </x:c>
     </x:row>
@@ -1643,6 +2056,9 @@
         <x:v>Jun 1990</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>81.7597073793972</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>67.3468947790698</x:v>
       </x:c>
     </x:row>
@@ -1654,6 +2070,9 @@
         <x:v>Jul 1990</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>78.7942048080437</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>67.3468947790698</x:v>
       </x:c>
     </x:row>
@@ -1665,6 +2084,9 @@
         <x:v>Aug 1990</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>75.9649550575362</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>67.5567020977087</x:v>
       </x:c>
     </x:row>
@@ -1676,6 +2098,9 @@
         <x:v>Sep 1990</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>86.4964966217483</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>67.7665094163475</x:v>
       </x:c>
     </x:row>
@@ -1687,6 +2112,9 @@
         <x:v>Oct 1990</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>92.643903303446</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>68.256048524667</x:v>
       </x:c>
     </x:row>
@@ -1698,6 +2126,9 @@
         <x:v>Nov 1990</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>89.4619991931018</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>68.1161769789078</x:v>
       </x:c>
     </x:row>
@@ -1709,6 +2140,9 @@
         <x:v>Dec 1990</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>83.8115145639013</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>68.1861127517874</x:v>
       </x:c>
     </x:row>
@@ -1720,6 +2154,9 @@
         <x:v>1991</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>83.2267671016905</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>70.2058500742827</x:v>
       </x:c>
     </x:row>
@@ -1731,6 +2168,9 @@
         <x:v>Jan 1991</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>83.0340719978978</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>68.6057160872272</x:v>
       </x:c>
     </x:row>
@@ -1742,6 +2182,9 @@
         <x:v>Feb 1991</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>80.8268371726373</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>68.905745977763</x:v>
       </x:c>
     </x:row>
@@ -1753,6 +2196,9 @@
         <x:v>Mar 1991</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>84.8208811421564</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>68.905745977763</x:v>
       </x:c>
     </x:row>
@@ -1764,6 +2210,9 @@
         <x:v>Apr 1991</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>86.2923710256635</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>69.2057645664609</x:v>
       </x:c>
     </x:row>
@@ -1775,6 +2224,9 @@
         <x:v>May 1991</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>79.6706665498817</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>69.4057844934847</x:v>
       </x:c>
     </x:row>
@@ -1786,6 +2238,9 @@
         <x:v>Jun 1991</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>86.2923710256635</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>69.8058130456945</x:v>
       </x:c>
     </x:row>
@@ -1797,6 +2252,9 @@
         <x:v>Jul 1991</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>81.9830077953928</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>70.605881451952</x:v>
       </x:c>
     </x:row>
@@ -1808,6 +2266,9 @@
         <x:v>Aug 1991</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>73.679600595603</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>70.605881451952</x:v>
       </x:c>
     </x:row>
@@ -1819,6 +2280,9 @@
         <x:v>Sep 1991</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>84.8208811421564</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>70.605881451952</x:v>
       </x:c>
     </x:row>
@@ -1830,6 +2294,9 @@
         <x:v>Oct 1991</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>90.2864149951826</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>71.7059797487452</x:v>
       </x:c>
     </x:row>
@@ -1841,6 +2308,9 @@
         <x:v>Nov 1991</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>87.028115967417</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>72.0059983374431</x:v>
       </x:c>
     </x:row>
@@ -1852,6 +2322,9 @@
         <x:v>Dec 1991</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>79.9859858106332</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>72.106008300955</x:v>
       </x:c>
     </x:row>
@@ -1863,6 +2336,9 @@
         <x:v>1992</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>82.0881142156434</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>73.756144444307</x:v>
       </x:c>
     </x:row>
@@ -1874,6 +2350,9 @@
         <x:v>Jan 1992</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>81.2472628536393</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>72.5060481550027</x:v>
       </x:c>
     </x:row>
@@ -1885,6 +2364,9 @@
         <x:v>Feb 1992</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>82.8238591573968</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>72.9060767072125</x:v>
       </x:c>
     </x:row>
@@ -1896,6 +2378,9 @@
         <x:v>Mar 1992</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>89.2353507926776</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>73.2060952959104</x:v>
       </x:c>
     </x:row>
@@ -1907,6 +2392,9 @@
         <x:v>Apr 1992</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>83.8749233599019</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>73.5061251864462</x:v>
       </x:c>
     </x:row>
@@ -1918,6 +2406,9 @@
         <x:v>May 1992</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>79.1451344486292</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>73.7061338116321</x:v>
       </x:c>
     </x:row>
@@ -1929,6 +2420,9 @@
         <x:v>Jun 1992</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>83.4544976788999</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>73.906153738656</x:v>
       </x:c>
     </x:row>
@@ -1940,6 +2434,9 @@
         <x:v>Jul 1992</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>79.5655601296312</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>74.1061736656798</x:v>
       </x:c>
     </x:row>
@@ -1951,6 +2448,9 @@
         <x:v>Aug 1992</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>70.9468336690899</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>74.1061736656798</x:v>
       </x:c>
     </x:row>
@@ -1962,6 +2462,9 @@
         <x:v>Sep 1992</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>86.1872646054129</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>74.1061736656798</x:v>
       </x:c>
     </x:row>
@@ -1973,6 +2476,9 @@
         <x:v>Oct 1992</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>87.238328807918</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>74.1061736656798</x:v>
       </x:c>
     </x:row>
@@ -1984,6 +2490,9 @@
         <x:v>Nov 1992</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>83.6647105194009</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>74.4062035562156</x:v>
       </x:c>
     </x:row>
@@ -1995,6 +2504,9 @@
         <x:v>Dec 1992</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>77.6736445651222</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>74.5062022178896</x:v>
       </x:c>
     </x:row>
@@ -2006,6 +2518,9 @@
         <x:v>1993</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>75.98318297276</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>77.0564195564705</x:v>
       </x:c>
     </x:row>
@@ -2017,6 +2532,9 @@
         <x:v>Jan 1993</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>69.1600245248314</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>75.8063204417067</x:v>
       </x:c>
     </x:row>
@@ -2028,6 +2546,9 @@
         <x:v>Feb 1993</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>72.3132171323465</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>76.4063689209403</x:v>
       </x:c>
     </x:row>
@@ -2039,6 +2560,9 @@
         <x:v>Mar 1993</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>84.5055618814049</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>76.6063775461263</x:v>
       </x:c>
     </x:row>
@@ -2050,6 +2574,9 @@
         <x:v>Apr 1993</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>75.2561968993606</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>76.8063974731501</x:v>
       </x:c>
     </x:row>
@@ -2061,6 +2588,9 @@
         <x:v>May 1993</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>71.787685031094</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>76.9064074366621</x:v>
       </x:c>
     </x:row>
@@ -2072,6 +2602,9 @@
         <x:v>Jun 1993</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>78.6196023473767</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>77.1064273636859</x:v>
       </x:c>
     </x:row>
@@ -2083,6 +2616,9 @@
         <x:v>Jul 1993</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>70.4213015678374</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>77.5064559158957</x:v>
       </x:c>
     </x:row>
@@ -2094,6 +2630,9 @@
         <x:v>Aug 1993</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>69.0549181045809</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>77.5064559158957</x:v>
       </x:c>
     </x:row>
@@ -2105,6 +2644,9 @@
         <x:v>Sep 1993</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>81.4574756941403</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>77.4064459523838</x:v>
       </x:c>
     </x:row>
@@ -2116,6 +2658,9 @@
         <x:v>Oct 1993</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>79.9859858106332</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>77.4064459523838</x:v>
       </x:c>
     </x:row>
@@ -2127,6 +2672,9 @@
         <x:v>Nov 1993</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>80.9319435928878</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>77.5064559158957</x:v>
       </x:c>
     </x:row>
@@ -2138,6 +2686,9 @@
         <x:v>Dec 1993</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>78.3042830866252</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>77.7064758429195</x:v>
       </x:c>
     </x:row>
@@ -2149,6 +2700,9 @@
         <x:v>1994</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>78.1115879828326</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>79.1315923938292</x:v>
       </x:c>
     </x:row>
@@ -2160,6 +2714,9 @@
         <x:v>Jan 1994</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>70.0008758868354</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>78.1065156969672</x:v>
       </x:c>
     </x:row>
@@ -2171,6 +2728,9 @@
         <x:v>Feb 1994</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>73.0489620741</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>78.7065641762009</x:v>
       </x:c>
     </x:row>
@@ -2182,6 +2742,9 @@
         <x:v>Mar 1994</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>85.0310939826574</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>78.8065628378749</x:v>
       </x:c>
     </x:row>
@@ -2193,6 +2756,9 @@
         <x:v>Apr 1994</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>75.0459840588596</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>78.9065728013868</x:v>
       </x:c>
     </x:row>
@@ -2204,6 +2770,9 @@
         <x:v>May 1994</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>76.0970482613646</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>79.1065927284107</x:v>
       </x:c>
     </x:row>
@@ -2215,6 +2784,9 @@
         <x:v>Jun 1994</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>81.5625821143908</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>79.2066026919226</x:v>
       </x:c>
     </x:row>
@@ -2226,6 +2798,9 @@
         <x:v>Jul 1994</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>72.418323552597</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>79.4066113171085</x:v>
       </x:c>
     </x:row>
@@ -2237,6 +2812,9 @@
         <x:v>Aug 1994</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>71.8927914513445</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>79.6066312441324</x:v>
       </x:c>
     </x:row>
@@ -2248,6 +2826,9 @@
         <x:v>Sep 1994</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>84.0851362004029</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>79.4066113171085</x:v>
       </x:c>
     </x:row>
@@ -2259,6 +2840,9 @@
         <x:v>Oct 1994</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>81.2472628536393</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>79.3066013535966</x:v>
       </x:c>
     </x:row>
@@ -2270,6 +2854,9 @@
         <x:v>Nov 1994</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>85.0310939826574</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>79.4066113171085</x:v>
       </x:c>
     </x:row>
@@ -2281,6 +2868,9 @@
         <x:v>Dec 1994</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>81.8779013751423</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>79.6066312441324</x:v>
       </x:c>
     </x:row>
@@ -2292,6 +2882,9 @@
         <x:v>1995</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>78.838574056232</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>80.4817042975643</x:v>
       </x:c>
     </x:row>
@@ -2303,6 +2896,9 @@
         <x:v>Jan 1995</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>74.7306647981081</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>79.9066498328303</x:v>
       </x:c>
     </x:row>
@@ -2314,6 +2910,9 @@
         <x:v>Feb 1995</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>75.3613033196111</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>80.3066896868779</x:v>
       </x:c>
     </x:row>
@@ -2325,6 +2924,9 @@
         <x:v>Mar 1995</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>87.7638609091705</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>80.3066896868779</x:v>
       </x:c>
     </x:row>
@@ -2336,6 +2938,9 @@
         <x:v>Apr 1995</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>74.2051326968555</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>80.4066996503899</x:v>
       </x:c>
     </x:row>
@@ -2347,6 +2952,9 @@
         <x:v>May 1995</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>81.2472628536393</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>80.4066996503899</x:v>
       </x:c>
     </x:row>
@@ -2358,6 +2966,9 @@
         <x:v>Jun 1995</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>80.5115179118858</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>80.5067096139018</x:v>
       </x:c>
     </x:row>
@@ -2369,6 +2980,9 @@
         <x:v>Jul 1995</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>73.9949198563545</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>80.7067182390877</x:v>
       </x:c>
     </x:row>
@@ -2380,6 +2994,9 @@
         <x:v>Aug 1995</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>72.628536393098</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>80.7067182390877</x:v>
       </x:c>
     </x:row>
@@ -2391,6 +3008,9 @@
         <x:v>Sep 1995</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>82.4034334763948</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>80.7067182390877</x:v>
       </x:c>
     </x:row>
@@ -2402,6 +3022,9 @@
         <x:v>Oct 1995</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>81.0370500131383</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>80.5067096139018</x:v>
       </x:c>
     </x:row>
@@ -2413,6 +3036,9 @@
         <x:v>Nov 1995</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>85.7668389244109</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>80.5067096139018</x:v>
       </x:c>
     </x:row>
@@ -2424,6 +3050,9 @@
         <x:v>Dec 1995</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>76.4123675221161</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>80.8067395044376</x:v>
       </x:c>
     </x:row>
@@ -2435,6 +3064,9 @@
         <x:v>1996</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>78.7597442410441</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>81.6484693106268</x:v>
       </x:c>
     </x:row>
@@ -2446,6 +3078,9 @@
         <x:v>Jan 1996</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>75.2561968993606</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>81.0067481296235</x:v>
       </x:c>
     </x:row>
@@ -2457,6 +3092,9 @@
         <x:v>Feb 1996</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>76.5174739423666</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>81.5067866453452</x:v>
       </x:c>
     </x:row>
@@ -2468,6 +3106,9 @@
         <x:v>Mar 1996</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>81.7727949548918</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>81.5067866453452</x:v>
       </x:c>
     </x:row>
@@ -2479,6 +3120,9 @@
         <x:v>Apr 1996</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>77.6736445651222</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>81.5067866453452</x:v>
       </x:c>
     </x:row>
@@ -2490,6 +3134,9 @@
         <x:v>May 1996</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>77.6736445651222</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>81.606807910695</x:v>
       </x:c>
     </x:row>
@@ -2501,6 +3148,9 @@
         <x:v>Jun 1996</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>77.6736445651222</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>81.7068065723691</x:v>
       </x:c>
     </x:row>
@@ -2512,6 +3162,9 @@
         <x:v>Jul 1996</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>78.6196023473767</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>81.806816535881</x:v>
       </x:c>
     </x:row>
@@ -2523,6 +3176,9 @@
         <x:v>Aug 1996</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>71.6825786108435</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>81.806816535881</x:v>
       </x:c>
     </x:row>
@@ -2534,6 +3190,9 @@
         <x:v>Sep 1996</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>82.8238591573968</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>81.806816535881</x:v>
       </x:c>
     </x:row>
@@ -2545,6 +3204,9 @@
         <x:v>Oct 1996</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>84.9259875624069</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>81.806816535881</x:v>
       </x:c>
     </x:row>
@@ -2556,6 +3218,9 @@
         <x:v>Nov 1996</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>84.6106683016554</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>81.7068065723691</x:v>
       </x:c>
     </x:row>
@@ -2567,6 +3232,9 @@
         <x:v>Dec 1996</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>75.8868354208636</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>82.0068364629048</x:v>
       </x:c>
     </x:row>
@@ -2578,6 +3246,9 @@
         <x:v>1997</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>81.0020145397215</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>83.2319368540699</x:v>
       </x:c>
     </x:row>
@@ -2589,6 +3260,9 @@
         <x:v>Jan 1997</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>75.1510904791101</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>82.7068949056504</x:v>
       </x:c>
     </x:row>
@@ -2600,6 +3274,9 @@
         <x:v>Feb 1997</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>75.5715161601121</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>82.8068935673244</x:v>
       </x:c>
     </x:row>
@@ -2611,6 +3288,9 @@
         <x:v>Mar 1997</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>78.8298151878777</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>82.8068935673244</x:v>
       </x:c>
     </x:row>
@@ -2622,6 +3302,9 @@
         <x:v>Apr 1997</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>85.3464132434089</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>82.7068949056504</x:v>
       </x:c>
     </x:row>
@@ -2633,6 +3316,9 @@
         <x:v>May 1997</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>74.3102391171061</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>82.9069148326742</x:v>
       </x:c>
     </x:row>
@@ -2644,6 +3330,9 @@
         <x:v>Jun 1997</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>85.3464132434089</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>83.0069134943483</x:v>
       </x:c>
     </x:row>
@@ -2655,6 +3344,9 @@
         <x:v>Jul 1997</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>83.7698169396514</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>83.7069832389317</x:v>
       </x:c>
     </x:row>
@@ -2666,6 +3358,9 @@
         <x:v>Aug 1997</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>70.4213015678374</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>83.8069819006058</x:v>
       </x:c>
     </x:row>
@@ -2677,6 +3372,9 @@
         <x:v>Sep 1997</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>86.9230095471665</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>83.6069619735819</x:v>
       </x:c>
     </x:row>
@@ -2688,6 +3386,9 @@
         <x:v>Oct 1997</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>88.6047122711745</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>83.5069633119079</x:v>
       </x:c>
     </x:row>
@@ -2699,6 +3400,9 @@
         <x:v>Nov 1997</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>86.817903126916</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>83.5069633119079</x:v>
       </x:c>
     </x:row>
@@ -2710,6 +3414,9 @@
         <x:v>Dec 1997</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>80.9319435928878</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>83.7069832389317</x:v>
       </x:c>
     </x:row>
@@ -2721,6 +3428,9 @@
         <x:v>1998</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>84.4179731978629</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>83.9903325585578</x:v>
       </x:c>
     </x:row>
@@ -2732,6 +3442,9 @@
         <x:v>Jan 1998</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>77.1481124638696</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>83.7069832389317</x:v>
       </x:c>
     </x:row>
@@ -2743,6 +3456,9 @@
         <x:v>Feb 1998</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>79.5655601296312</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>83.9069918641177</x:v>
       </x:c>
     </x:row>
@@ -2754,6 +3470,9 @@
         <x:v>Mar 1998</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>91.4425856179381</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>83.8069819006058</x:v>
       </x:c>
     </x:row>
@@ -2765,6 +3484,9 @@
         <x:v>Apr 1998</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>84.0851362004029</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>83.9069918641177</x:v>
       </x:c>
     </x:row>
@@ -2776,6 +3498,9 @@
         <x:v>May 1998</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>80.9319435928878</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>84.0070018276296</x:v>
       </x:c>
     </x:row>
@@ -2787,6 +3512,9 @@
         <x:v>Jun 1998</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>85.6617325041604</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>84.1070117911415</x:v>
       </x:c>
     </x:row>
@@ -2798,6 +3526,9 @@
         <x:v>Jul 1998</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>87.238328807918</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>84.4070303798394</x:v>
       </x:c>
     </x:row>
@@ -2809,6 +3540,9 @@
         <x:v>Aug 1998</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>74.7306647981081</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>84.2070104528156</x:v>
       </x:c>
     </x:row>
@@ -2820,6 +3554,9 @@
         <x:v>Sep 1998</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>89.5506700534291</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>84.0070018276296</x:v>
       </x:c>
     </x:row>
@@ -2831,6 +3568,9 @@
         <x:v>Oct 1998</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>90.4966278356836</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>83.9069918641177</x:v>
       </x:c>
     </x:row>
@@ -2842,6 +3582,9 @@
         <x:v>Nov 1998</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>89.6557764736796</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>83.9069918641177</x:v>
       </x:c>
     </x:row>
@@ -2853,6 +3596,9 @@
         <x:v>Dec 1998</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>82.5085398966453</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>84.0070018276296</x:v>
       </x:c>
     </x:row>
@@ -2864,6 +3610,9 @@
         <x:v>1999</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>85.6179381623895</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>84.482039736113</x:v>
       </x:c>
     </x:row>
@@ -2875,6 +3624,9 @@
         <x:v>Jan 1999</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>75.2561968993606</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>83.9069918641177</x:v>
       </x:c>
     </x:row>
@@ -2886,6 +3638,9 @@
         <x:v>Feb 1999</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>78.8298151878777</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>84.0070018276296</x:v>
       </x:c>
     </x:row>
@@ -2897,6 +3652,9 @@
         <x:v>Mar 1999</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>92.9140755014452</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>84.0070018276296</x:v>
       </x:c>
     </x:row>
@@ -2908,6 +3666,9 @@
         <x:v>Apr 1999</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>83.8749233599019</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>84.4070303798394</x:v>
       </x:c>
     </x:row>
@@ -2919,6 +3680,9 @@
         <x:v>May 1999</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>80.7217307523868</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>84.4070303798394</x:v>
       </x:c>
     </x:row>
@@ -2930,6 +3694,9 @@
         <x:v>Jun 1999</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>89.130244372427</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>84.5070403433513</x:v>
       </x:c>
     </x:row>
@@ -2941,6 +3708,9 @@
         <x:v>Jul 1999</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>84.2953490409039</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>84.907080197399</x:v>
       </x:c>
     </x:row>
@@ -2952,6 +3722,9 @@
         <x:v>Aug 1999</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>78.6196023473767</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>84.8070702338871</x:v>
       </x:c>
     </x:row>
@@ -2963,6 +3736,9 @@
         <x:v>Sep 1999</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>91.5476920381886</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>84.6070503068632</x:v>
       </x:c>
     </x:row>
@@ -2974,6 +3750,9 @@
         <x:v>Oct 1999</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>90.0762021546816</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>84.5070403433513</x:v>
       </x:c>
     </x:row>
@@ -2985,6 +3764,9 @@
         <x:v>Nov 1999</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>94.3855653849522</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>84.7070602703752</x:v>
       </x:c>
     </x:row>
@@ -2996,6 +3778,9 @@
         <x:v>Dec 1999</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>87.7638609091705</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>85.007078859073</x:v>
       </x:c>
     </x:row>
@@ -3007,6 +3792,9 @@
         <x:v>2000</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>89.9097836559517</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>85.6988078472918</x:v>
       </x:c>
     </x:row>
@@ -3018,6 +3806,9 @@
         <x:v>Jan 2000</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>79.2502408688797</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>85.2070987860969</x:v>
       </x:c>
     </x:row>
@@ -3029,6 +3820,9 @@
         <x:v>Feb 2000</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>87.238328807918</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>85.3071087496088</x:v>
       </x:c>
     </x:row>
@@ -3040,6 +3834,9 @@
         <x:v>Mar 2000</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>96.4876937899623</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>85.3071087496088</x:v>
       </x:c>
     </x:row>
@@ -3051,6 +3848,9 @@
         <x:v>Apr 2000</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>83.1391784181483</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>85.3071087496088</x:v>
       </x:c>
     </x:row>
@@ -3062,6 +3862,9 @@
         <x:v>May 2000</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>95.4366295874573</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>85.2070987860969</x:v>
       </x:c>
     </x:row>
@@ -3073,6 +3876,9 @@
         <x:v>Jun 2000</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>87.448541648419</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>85.6071386401446</x:v>
       </x:c>
     </x:row>
@@ -3084,6 +3890,9 @@
         <x:v>Jul 2000</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>87.238328807918</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>86.0071671923544</x:v>
       </x:c>
     </x:row>
@@ -3095,6 +3904,9 @@
         <x:v>Aug 2000</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>85.7668389244109</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>85.8071472653305</x:v>
       </x:c>
     </x:row>
@@ -3106,6 +3918,9 @@
         <x:v>Sep 2000</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>94.4906718052027</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>86.0071671923544</x:v>
       </x:c>
     </x:row>
@@ -3117,6 +3932,9 @@
         <x:v>Oct 2000</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>94.4906718052027</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>85.9071572288425</x:v>
       </x:c>
     </x:row>
@@ -3128,6 +3946,9 @@
         <x:v>Nov 2000</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>99.4306735569764</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>86.0071671923544</x:v>
       </x:c>
     </x:row>
@@ -3139,6 +3960,9 @@
         <x:v>Dec 2000</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>88.499605850924</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>86.7072256350999</x:v>
       </x:c>
     </x:row>
@@ -3150,6 +3974,9 @@
         <x:v>2001</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>89.8747481825349</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>87.3989499142195</x:v>
       </x:c>
     </x:row>
@@ -3161,6 +3988,9 @@
         <x:v>Jan 2001</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>88.289393010423</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>86.4072070464021</x:v>
       </x:c>
     </x:row>
@@ -3172,6 +4002,9 @@
         <x:v>Feb 2001</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>87.868967329421</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>86.9072342602859</x:v>
       </x:c>
     </x:row>
@@ -3183,6 +4016,9 @@
         <x:v>Mar 2001</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>98.4847157747219</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>86.9072342602859</x:v>
       </x:c>
     </x:row>
@@ -3194,6 +4030,9 @@
         <x:v>Apr 2001</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>87.1332223876675</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>87.3072741143336</x:v>
       </x:c>
     </x:row>
@@ -3205,6 +4044,9 @@
         <x:v>May 2001</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>92.4936498204432</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>87.6073040048693</x:v>
       </x:c>
     </x:row>
@@ -3216,6 +4058,9 @@
         <x:v>Jun 2001</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>89.7608828939301</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>87.7073026665434</x:v>
       </x:c>
     </x:row>
@@ -3227,6 +4072,9 @@
         <x:v>Jul 2001</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>88.3944994306735</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>87.8073239318932</x:v>
       </x:c>
     </x:row>
@@ -3238,6 +4086,9 @@
         <x:v>Aug 2001</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>85.7668389244109</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>87.6073040048693</x:v>
       </x:c>
     </x:row>
@@ -3249,6 +4100,9 @@
         <x:v>Sep 2001</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>90.0762021546816</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>87.6073040048693</x:v>
       </x:c>
     </x:row>
@@ -3260,6 +4114,9 @@
         <x:v>Oct 2001</x:v>
       </x:c>
       <x:c s="9">
+        <x:v>94.4906718052027</x:v>
+      </x:c>
+      <x:c s="9">
         <x:v>87.5072940413574</x:v>
       </x:c>
     </x:row>
@@ -3271,6 +4128,9 @@
         <x:v>Nov 2001</x:v>
       </x:c>
       <x:c s="7">
+        <x:v>95.0162039064552</x:v>
+      </x:c>
+      <x:c s="7">
         <x:v>87.3072741143336</x:v>
       </x:c>
     </x:row>
@@ -3280,6 +4140,9 @@
       </x:c>
       <x:c s="8" t="str">
         <x:v>Dec 2001</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>80.7217307523868</x:v>
       </x:c>
       <x:c s="9">
         <x:v>88.1073425205911</x:v>
@@ -3288,7 +4151,7 @@
   </x:sheetData>
   <x:mergeCells count="2">
     <x:mergeCell ref="A3:A288"/>
-    <x:mergeCell ref="A1:K1"/>
+    <x:mergeCell ref="A1:J1"/>
   </x:mergeCells>
   <x:pageMargins left="1.18" right="0.79" top="0.79" bottom="0.79" header="0" footer="0"/>
   <x:pageSetup paperSize="9" scale="100" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
@@ -3301,13 +4164,17 @@
   <x:cols>
     <x:col min="1" max="1" width="8.63" customWidth="1"/>
     <x:col min="2" max="2" width="9.5" customWidth="1"/>
-    <x:col min="3" max="3" width="40.13" customWidth="1"/>
+    <x:col min="3" max="3" width="40.75" customWidth="1"/>
+    <x:col min="4" max="4" width="40.13" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row customHeight="0">
       <x:c s="0"/>
       <x:c s="0"/>
       <x:c s="0" t="str">
+        <x:v>Economic Activity, Industrial Production, Index</x:v>
+      </x:c>
+      <x:c s="0" t="str">
         <x:v>Prices, Consumer Price Index, All items, Index</x:v>
       </x:c>
     </x:row>
@@ -3322,6 +4189,10 @@
         <x:v>Country: Germany
 Time: 1980</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: 1980</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3334,6 +4205,10 @@
         <x:v>Country: Germany
 Time: Jan 1980</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jan 1980</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3346,6 +4221,10 @@
         <x:v>Country: Germany
 Time: Feb 1980</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Feb 1980</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3358,6 +4237,10 @@
         <x:v>Country: Germany
 Time: Mar 1980</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Mar 1980</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3370,6 +4253,10 @@
         <x:v>Country: Germany
 Time: Apr 1980</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Apr 1980</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3382,6 +4269,10 @@
         <x:v>Country: Germany
 Time: May 1980</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: May 1980</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3394,6 +4285,10 @@
         <x:v>Country: Germany
 Time: Jun 1980</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jun 1980</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3406,6 +4301,10 @@
         <x:v>Country: Germany
 Time: Jul 1980</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jul 1980</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3418,6 +4317,10 @@
         <x:v>Country: Germany
 Time: Aug 1980</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Aug 1980</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3430,6 +4333,10 @@
         <x:v>Country: Germany
 Time: Sep 1980</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Sep 1980</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3442,6 +4349,10 @@
         <x:v>Country: Germany
 Time: Oct 1980</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Oct 1980</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3454,6 +4365,10 @@
         <x:v>Country: Germany
 Time: Nov 1980</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Nov 1980</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3466,6 +4381,10 @@
         <x:v>Country: Germany
 Time: Dec 1980</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Dec 1980</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3478,6 +4397,10 @@
         <x:v>Country: Germany
 Time: 1981</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: 1981</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3490,6 +4413,10 @@
         <x:v>Country: Germany
 Time: Jan 1981</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jan 1981</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3502,6 +4429,10 @@
         <x:v>Country: Germany
 Time: Feb 1981</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Feb 1981</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3514,6 +4445,10 @@
         <x:v>Country: Germany
 Time: Mar 1981</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Mar 1981</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3526,6 +4461,10 @@
         <x:v>Country: Germany
 Time: Apr 1981</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Apr 1981</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3538,6 +4477,10 @@
         <x:v>Country: Germany
 Time: May 1981</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: May 1981</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3550,6 +4493,10 @@
         <x:v>Country: Germany
 Time: Jun 1981</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jun 1981</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3562,6 +4509,10 @@
         <x:v>Country: Germany
 Time: Jul 1981</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jul 1981</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3574,6 +4525,10 @@
         <x:v>Country: Germany
 Time: Aug 1981</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Aug 1981</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3586,6 +4541,10 @@
         <x:v>Country: Germany
 Time: Sep 1981</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Sep 1981</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3598,6 +4557,10 @@
         <x:v>Country: Germany
 Time: Oct 1981</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Oct 1981</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3610,6 +4573,10 @@
         <x:v>Country: Germany
 Time: Nov 1981</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Nov 1981</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3622,6 +4589,10 @@
         <x:v>Country: Germany
 Time: Dec 1981</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Dec 1981</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3634,6 +4605,10 @@
         <x:v>Country: Germany
 Time: 1982</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: 1982</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3646,6 +4621,10 @@
         <x:v>Country: Germany
 Time: Jan 1982</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jan 1982</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3658,6 +4637,10 @@
         <x:v>Country: Germany
 Time: Feb 1982</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Feb 1982</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3670,6 +4653,10 @@
         <x:v>Country: Germany
 Time: Mar 1982</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Mar 1982</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3682,6 +4669,10 @@
         <x:v>Country: Germany
 Time: Apr 1982</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Apr 1982</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3694,6 +4685,10 @@
         <x:v>Country: Germany
 Time: May 1982</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: May 1982</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3706,6 +4701,10 @@
         <x:v>Country: Germany
 Time: Jun 1982</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jun 1982</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3718,6 +4717,10 @@
         <x:v>Country: Germany
 Time: Jul 1982</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jul 1982</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3730,6 +4733,10 @@
         <x:v>Country: Germany
 Time: Aug 1982</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Aug 1982</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3742,6 +4749,10 @@
         <x:v>Country: Germany
 Time: Sep 1982</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Sep 1982</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3754,6 +4765,10 @@
         <x:v>Country: Germany
 Time: Oct 1982</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Oct 1982</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3766,6 +4781,10 @@
         <x:v>Country: Germany
 Time: Nov 1982</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Nov 1982</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3778,6 +4797,10 @@
         <x:v>Country: Germany
 Time: Dec 1982</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Dec 1982</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3790,6 +4813,10 @@
         <x:v>Country: Germany
 Time: 1983</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: 1983</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3802,6 +4829,10 @@
         <x:v>Country: Germany
 Time: Jan 1983</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jan 1983</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3814,6 +4845,10 @@
         <x:v>Country: Germany
 Time: Feb 1983</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Feb 1983</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3826,6 +4861,10 @@
         <x:v>Country: Germany
 Time: Mar 1983</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Mar 1983</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3838,6 +4877,10 @@
         <x:v>Country: Germany
 Time: Apr 1983</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Apr 1983</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3850,6 +4893,10 @@
         <x:v>Country: Germany
 Time: May 1983</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: May 1983</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3862,6 +4909,10 @@
         <x:v>Country: Germany
 Time: Jun 1983</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jun 1983</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3874,6 +4925,10 @@
         <x:v>Country: Germany
 Time: Jul 1983</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jul 1983</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3886,6 +4941,10 @@
         <x:v>Country: Germany
 Time: Aug 1983</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Aug 1983</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3898,6 +4957,10 @@
         <x:v>Country: Germany
 Time: Sep 1983</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Sep 1983</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3910,6 +4973,10 @@
         <x:v>Country: Germany
 Time: Oct 1983</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Oct 1983</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3922,6 +4989,10 @@
         <x:v>Country: Germany
 Time: Nov 1983</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Nov 1983</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3934,6 +5005,10 @@
         <x:v>Country: Germany
 Time: Dec 1983</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Dec 1983</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3946,6 +5021,10 @@
         <x:v>Country: Germany
 Time: 1984</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: 1984</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3958,6 +5037,10 @@
         <x:v>Country: Germany
 Time: Jan 1984</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jan 1984</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3970,6 +5053,10 @@
         <x:v>Country: Germany
 Time: Feb 1984</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Feb 1984</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3982,6 +5069,10 @@
         <x:v>Country: Germany
 Time: Mar 1984</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Mar 1984</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -3994,6 +5085,10 @@
         <x:v>Country: Germany
 Time: Apr 1984</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Apr 1984</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4006,6 +5101,10 @@
         <x:v>Country: Germany
 Time: May 1984</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: May 1984</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4018,6 +5117,10 @@
         <x:v>Country: Germany
 Time: Jun 1984</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jun 1984</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4030,6 +5133,10 @@
         <x:v>Country: Germany
 Time: Jul 1984</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jul 1984</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4042,6 +5149,10 @@
         <x:v>Country: Germany
 Time: Aug 1984</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Aug 1984</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4054,6 +5165,10 @@
         <x:v>Country: Germany
 Time: Sep 1984</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Sep 1984</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4066,6 +5181,10 @@
         <x:v>Country: Germany
 Time: Oct 1984</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Oct 1984</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4078,6 +5197,10 @@
         <x:v>Country: Germany
 Time: Nov 1984</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Nov 1984</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4090,6 +5213,10 @@
         <x:v>Country: Germany
 Time: Dec 1984</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Dec 1984</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4102,6 +5229,10 @@
         <x:v>Country: Germany
 Time: 1985</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: 1985</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4114,6 +5245,10 @@
         <x:v>Country: Germany
 Time: Jan 1985</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jan 1985</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4126,6 +5261,10 @@
         <x:v>Country: Germany
 Time: Feb 1985</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Feb 1985</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4138,6 +5277,10 @@
         <x:v>Country: Germany
 Time: Mar 1985</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Mar 1985</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4150,6 +5293,10 @@
         <x:v>Country: Germany
 Time: Apr 1985</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Apr 1985</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4162,6 +5309,10 @@
         <x:v>Country: Germany
 Time: May 1985</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: May 1985</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4174,6 +5325,10 @@
         <x:v>Country: Germany
 Time: Jun 1985</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jun 1985</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4186,6 +5341,10 @@
         <x:v>Country: Germany
 Time: Jul 1985</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jul 1985</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4198,6 +5357,10 @@
         <x:v>Country: Germany
 Time: Aug 1985</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Aug 1985</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4210,6 +5373,10 @@
         <x:v>Country: Germany
 Time: Sep 1985</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Sep 1985</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4222,6 +5389,10 @@
         <x:v>Country: Germany
 Time: Oct 1985</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Oct 1985</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4234,6 +5405,10 @@
         <x:v>Country: Germany
 Time: Nov 1985</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Nov 1985</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4246,6 +5421,10 @@
         <x:v>Country: Germany
 Time: Dec 1985</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Dec 1985</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4258,6 +5437,10 @@
         <x:v>Country: Germany
 Time: 1986</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: 1986</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4270,6 +5453,10 @@
         <x:v>Country: Germany
 Time: Jan 1986</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jan 1986</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4282,6 +5469,10 @@
         <x:v>Country: Germany
 Time: Feb 1986</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Feb 1986</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4294,6 +5485,10 @@
         <x:v>Country: Germany
 Time: Mar 1986</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Mar 1986</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4306,6 +5501,10 @@
         <x:v>Country: Germany
 Time: Apr 1986</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Apr 1986</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4318,6 +5517,10 @@
         <x:v>Country: Germany
 Time: May 1986</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: May 1986</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4330,6 +5533,10 @@
         <x:v>Country: Germany
 Time: Jun 1986</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jun 1986</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4342,6 +5549,10 @@
         <x:v>Country: Germany
 Time: Jul 1986</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jul 1986</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4354,6 +5565,10 @@
         <x:v>Country: Germany
 Time: Aug 1986</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Aug 1986</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4366,6 +5581,10 @@
         <x:v>Country: Germany
 Time: Sep 1986</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Sep 1986</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4378,6 +5597,10 @@
         <x:v>Country: Germany
 Time: Oct 1986</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Oct 1986</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4390,6 +5613,10 @@
         <x:v>Country: Germany
 Time: Nov 1986</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Nov 1986</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4402,6 +5629,10 @@
         <x:v>Country: Germany
 Time: Dec 1986</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Dec 1986</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4414,6 +5645,10 @@
         <x:v>Country: Germany
 Time: 1987</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: 1987</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4426,6 +5661,10 @@
         <x:v>Country: Germany
 Time: Jan 1987</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jan 1987</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4438,6 +5677,10 @@
         <x:v>Country: Germany
 Time: Feb 1987</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Feb 1987</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4450,6 +5693,10 @@
         <x:v>Country: Germany
 Time: Mar 1987</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Mar 1987</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4462,6 +5709,10 @@
         <x:v>Country: Germany
 Time: Apr 1987</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Apr 1987</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4474,6 +5725,10 @@
         <x:v>Country: Germany
 Time: May 1987</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: May 1987</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4486,6 +5741,10 @@
         <x:v>Country: Germany
 Time: Jun 1987</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jun 1987</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4498,6 +5757,10 @@
         <x:v>Country: Germany
 Time: Jul 1987</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jul 1987</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4510,6 +5773,10 @@
         <x:v>Country: Germany
 Time: Aug 1987</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Aug 1987</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4522,6 +5789,10 @@
         <x:v>Country: Germany
 Time: Sep 1987</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Sep 1987</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4534,6 +5805,10 @@
         <x:v>Country: Germany
 Time: Oct 1987</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Oct 1987</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4546,6 +5821,10 @@
         <x:v>Country: Germany
 Time: Nov 1987</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Nov 1987</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4558,6 +5837,10 @@
         <x:v>Country: Germany
 Time: Dec 1987</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Dec 1987</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4570,6 +5853,10 @@
         <x:v>Country: Germany
 Time: 1988</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: 1988</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4582,6 +5869,10 @@
         <x:v>Country: Germany
 Time: Jan 1988</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jan 1988</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4594,6 +5885,10 @@
         <x:v>Country: Germany
 Time: Feb 1988</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Feb 1988</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4606,6 +5901,10 @@
         <x:v>Country: Germany
 Time: Mar 1988</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Mar 1988</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4618,6 +5917,10 @@
         <x:v>Country: Germany
 Time: Apr 1988</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Apr 1988</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4630,6 +5933,10 @@
         <x:v>Country: Germany
 Time: May 1988</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: May 1988</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4642,6 +5949,10 @@
         <x:v>Country: Germany
 Time: Jun 1988</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jun 1988</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4654,6 +5965,10 @@
         <x:v>Country: Germany
 Time: Jul 1988</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jul 1988</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4666,6 +5981,10 @@
         <x:v>Country: Germany
 Time: Aug 1988</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Aug 1988</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4678,6 +5997,10 @@
         <x:v>Country: Germany
 Time: Sep 1988</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Sep 1988</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4690,6 +6013,10 @@
         <x:v>Country: Germany
 Time: Oct 1988</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Oct 1988</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4702,6 +6029,10 @@
         <x:v>Country: Germany
 Time: Nov 1988</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Nov 1988</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4714,6 +6045,10 @@
         <x:v>Country: Germany
 Time: Dec 1988</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Dec 1988</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4726,6 +6061,10 @@
         <x:v>Country: Germany
 Time: 1989</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: 1989</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4738,6 +6077,10 @@
         <x:v>Country: Germany
 Time: Jan 1989</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jan 1989</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4750,6 +6093,10 @@
         <x:v>Country: Germany
 Time: Feb 1989</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Feb 1989</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4762,6 +6109,10 @@
         <x:v>Country: Germany
 Time: Mar 1989</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Mar 1989</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4774,6 +6125,10 @@
         <x:v>Country: Germany
 Time: Apr 1989</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Apr 1989</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4786,6 +6141,10 @@
         <x:v>Country: Germany
 Time: May 1989</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: May 1989</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4798,6 +6157,10 @@
         <x:v>Country: Germany
 Time: Jun 1989</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jun 1989</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4810,6 +6173,10 @@
         <x:v>Country: Germany
 Time: Jul 1989</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jul 1989</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4822,6 +6189,10 @@
         <x:v>Country: Germany
 Time: Aug 1989</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Aug 1989</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4834,6 +6205,10 @@
         <x:v>Country: Germany
 Time: Sep 1989</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Sep 1989</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4846,6 +6221,10 @@
         <x:v>Country: Germany
 Time: Oct 1989</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Oct 1989</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4858,6 +6237,10 @@
         <x:v>Country: Germany
 Time: Nov 1989</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Nov 1989</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4870,6 +6253,10 @@
         <x:v>Country: Germany
 Time: Dec 1989</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Dec 1989</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4882,6 +6269,10 @@
         <x:v>Country: Germany
 Time: 1990</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: 1990</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4894,6 +6285,10 @@
         <x:v>Country: Germany
 Time: Jan 1990</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jan 1990</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4906,6 +6301,10 @@
         <x:v>Country: Germany
 Time: Feb 1990</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Feb 1990</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4918,6 +6317,10 @@
         <x:v>Country: Germany
 Time: Mar 1990</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Mar 1990</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4930,6 +6333,10 @@
         <x:v>Country: Germany
 Time: Apr 1990</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Apr 1990</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4942,6 +6349,10 @@
         <x:v>Country: Germany
 Time: May 1990</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: May 1990</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4954,6 +6365,10 @@
         <x:v>Country: Germany
 Time: Jun 1990</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jun 1990</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4966,6 +6381,10 @@
         <x:v>Country: Germany
 Time: Jul 1990</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jul 1990</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4978,6 +6397,10 @@
         <x:v>Country: Germany
 Time: Aug 1990</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Aug 1990</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -4990,6 +6413,10 @@
         <x:v>Country: Germany
 Time: Sep 1990</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Sep 1990</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5002,6 +6429,10 @@
         <x:v>Country: Germany
 Time: Oct 1990</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Oct 1990</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5014,6 +6445,10 @@
         <x:v>Country: Germany
 Time: Nov 1990</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Nov 1990</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5026,6 +6461,10 @@
         <x:v>Country: Germany
 Time: Dec 1990</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Dec 1990</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5038,6 +6477,10 @@
         <x:v>Country: Germany
 Time: 1991</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: 1991</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5050,6 +6493,10 @@
         <x:v>Country: Germany
 Time: Jan 1991</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jan 1991</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5062,6 +6509,10 @@
         <x:v>Country: Germany
 Time: Feb 1991</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Feb 1991</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5074,6 +6525,10 @@
         <x:v>Country: Germany
 Time: Mar 1991</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Mar 1991</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5086,6 +6541,10 @@
         <x:v>Country: Germany
 Time: Apr 1991</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Apr 1991</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5098,6 +6557,10 @@
         <x:v>Country: Germany
 Time: May 1991</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: May 1991</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5110,6 +6573,10 @@
         <x:v>Country: Germany
 Time: Jun 1991</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jun 1991</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5122,6 +6589,10 @@
         <x:v>Country: Germany
 Time: Jul 1991</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jul 1991</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5134,6 +6605,10 @@
         <x:v>Country: Germany
 Time: Aug 1991</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Aug 1991</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5146,6 +6621,10 @@
         <x:v>Country: Germany
 Time: Sep 1991</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Sep 1991</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5158,6 +6637,10 @@
         <x:v>Country: Germany
 Time: Oct 1991</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Oct 1991</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5170,6 +6653,10 @@
         <x:v>Country: Germany
 Time: Nov 1991</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Nov 1991</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5182,6 +6669,10 @@
         <x:v>Country: Germany
 Time: Dec 1991</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Dec 1991</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5194,6 +6685,10 @@
         <x:v>Country: Germany
 Time: 1992</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: 1992</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5206,6 +6701,10 @@
         <x:v>Country: Germany
 Time: Jan 1992</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jan 1992</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5218,6 +6717,10 @@
         <x:v>Country: Germany
 Time: Feb 1992</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Feb 1992</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5230,6 +6733,10 @@
         <x:v>Country: Germany
 Time: Mar 1992</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Mar 1992</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5242,6 +6749,10 @@
         <x:v>Country: Germany
 Time: Apr 1992</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Apr 1992</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5254,6 +6765,10 @@
         <x:v>Country: Germany
 Time: May 1992</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: May 1992</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5266,6 +6781,10 @@
         <x:v>Country: Germany
 Time: Jun 1992</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jun 1992</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5278,6 +6797,10 @@
         <x:v>Country: Germany
 Time: Jul 1992</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jul 1992</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5290,6 +6813,10 @@
         <x:v>Country: Germany
 Time: Aug 1992</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Aug 1992</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5302,6 +6829,10 @@
         <x:v>Country: Germany
 Time: Sep 1992</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Sep 1992</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5314,6 +6845,10 @@
         <x:v>Country: Germany
 Time: Oct 1992</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Oct 1992</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5326,6 +6861,10 @@
         <x:v>Country: Germany
 Time: Nov 1992</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Nov 1992</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5338,6 +6877,10 @@
         <x:v>Country: Germany
 Time: Dec 1992</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Dec 1992</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5350,6 +6893,10 @@
         <x:v>Country: Germany
 Time: 1993</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: 1993</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5362,6 +6909,10 @@
         <x:v>Country: Germany
 Time: Jan 1993</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jan 1993</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5374,6 +6925,10 @@
         <x:v>Country: Germany
 Time: Feb 1993</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Feb 1993</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5386,6 +6941,10 @@
         <x:v>Country: Germany
 Time: Mar 1993</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Mar 1993</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5398,6 +6957,10 @@
         <x:v>Country: Germany
 Time: Apr 1993</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Apr 1993</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5410,6 +6973,10 @@
         <x:v>Country: Germany
 Time: May 1993</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: May 1993</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5422,6 +6989,10 @@
         <x:v>Country: Germany
 Time: Jun 1993</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jun 1993</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5434,6 +7005,10 @@
         <x:v>Country: Germany
 Time: Jul 1993</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jul 1993</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5446,6 +7021,10 @@
         <x:v>Country: Germany
 Time: Aug 1993</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Aug 1993</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5458,6 +7037,10 @@
         <x:v>Country: Germany
 Time: Sep 1993</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Sep 1993</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5470,6 +7053,10 @@
         <x:v>Country: Germany
 Time: Oct 1993</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Oct 1993</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5482,6 +7069,10 @@
         <x:v>Country: Germany
 Time: Nov 1993</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Nov 1993</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5494,6 +7085,10 @@
         <x:v>Country: Germany
 Time: Dec 1993</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Dec 1993</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5506,6 +7101,10 @@
         <x:v>Country: Germany
 Time: 1994</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: 1994</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5518,6 +7117,10 @@
         <x:v>Country: Germany
 Time: Jan 1994</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jan 1994</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5530,6 +7133,10 @@
         <x:v>Country: Germany
 Time: Feb 1994</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Feb 1994</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5542,6 +7149,10 @@
         <x:v>Country: Germany
 Time: Mar 1994</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Mar 1994</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5554,6 +7165,10 @@
         <x:v>Country: Germany
 Time: Apr 1994</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Apr 1994</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5566,6 +7181,10 @@
         <x:v>Country: Germany
 Time: May 1994</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: May 1994</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5578,6 +7197,10 @@
         <x:v>Country: Germany
 Time: Jun 1994</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jun 1994</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5590,6 +7213,10 @@
         <x:v>Country: Germany
 Time: Jul 1994</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jul 1994</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5602,6 +7229,10 @@
         <x:v>Country: Germany
 Time: Aug 1994</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Aug 1994</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5614,6 +7245,10 @@
         <x:v>Country: Germany
 Time: Sep 1994</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Sep 1994</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5626,6 +7261,10 @@
         <x:v>Country: Germany
 Time: Oct 1994</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Oct 1994</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5638,6 +7277,10 @@
         <x:v>Country: Germany
 Time: Nov 1994</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Nov 1994</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5650,6 +7293,10 @@
         <x:v>Country: Germany
 Time: Dec 1994</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Dec 1994</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5662,6 +7309,10 @@
         <x:v>Country: Germany
 Time: 1995</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: 1995</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5674,6 +7325,10 @@
         <x:v>Country: Germany
 Time: Jan 1995</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jan 1995</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5686,6 +7341,10 @@
         <x:v>Country: Germany
 Time: Feb 1995</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Feb 1995</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5698,6 +7357,10 @@
         <x:v>Country: Germany
 Time: Mar 1995</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Mar 1995</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5710,6 +7373,10 @@
         <x:v>Country: Germany
 Time: Apr 1995</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Apr 1995</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5722,6 +7389,10 @@
         <x:v>Country: Germany
 Time: May 1995</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: May 1995</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5734,6 +7405,10 @@
         <x:v>Country: Germany
 Time: Jun 1995</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jun 1995</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5746,6 +7421,10 @@
         <x:v>Country: Germany
 Time: Jul 1995</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jul 1995</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5758,6 +7437,10 @@
         <x:v>Country: Germany
 Time: Aug 1995</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Aug 1995</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5770,6 +7453,10 @@
         <x:v>Country: Germany
 Time: Sep 1995</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Sep 1995</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5782,6 +7469,10 @@
         <x:v>Country: Germany
 Time: Oct 1995</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Oct 1995</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5794,6 +7485,10 @@
         <x:v>Country: Germany
 Time: Nov 1995</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Nov 1995</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5806,6 +7501,10 @@
         <x:v>Country: Germany
 Time: Dec 1995</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Dec 1995</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5818,6 +7517,10 @@
         <x:v>Country: Germany
 Time: 1996</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: 1996</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5830,6 +7533,10 @@
         <x:v>Country: Germany
 Time: Jan 1996</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jan 1996</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5842,6 +7549,10 @@
         <x:v>Country: Germany
 Time: Feb 1996</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Feb 1996</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5854,6 +7565,10 @@
         <x:v>Country: Germany
 Time: Mar 1996</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Mar 1996</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5866,6 +7581,10 @@
         <x:v>Country: Germany
 Time: Apr 1996</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Apr 1996</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5878,6 +7597,10 @@
         <x:v>Country: Germany
 Time: May 1996</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: May 1996</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5890,6 +7613,10 @@
         <x:v>Country: Germany
 Time: Jun 1996</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jun 1996</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5902,6 +7629,10 @@
         <x:v>Country: Germany
 Time: Jul 1996</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jul 1996</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5914,6 +7645,10 @@
         <x:v>Country: Germany
 Time: Aug 1996</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Aug 1996</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5926,6 +7661,10 @@
         <x:v>Country: Germany
 Time: Sep 1996</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Sep 1996</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5938,6 +7677,10 @@
         <x:v>Country: Germany
 Time: Oct 1996</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Oct 1996</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5950,6 +7693,10 @@
         <x:v>Country: Germany
 Time: Nov 1996</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Nov 1996</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5962,6 +7709,10 @@
         <x:v>Country: Germany
 Time: Dec 1996</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Dec 1996</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5974,6 +7725,10 @@
         <x:v>Country: Germany
 Time: 1997</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: 1997</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5986,6 +7741,10 @@
         <x:v>Country: Germany
 Time: Jan 1997</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jan 1997</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -5998,6 +7757,10 @@
         <x:v>Country: Germany
 Time: Feb 1997</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Feb 1997</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6010,6 +7773,10 @@
         <x:v>Country: Germany
 Time: Mar 1997</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Mar 1997</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6022,6 +7789,10 @@
         <x:v>Country: Germany
 Time: Apr 1997</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Apr 1997</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6034,6 +7805,10 @@
         <x:v>Country: Germany
 Time: May 1997</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: May 1997</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6046,6 +7821,10 @@
         <x:v>Country: Germany
 Time: Jun 1997</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jun 1997</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6058,6 +7837,10 @@
         <x:v>Country: Germany
 Time: Jul 1997</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jul 1997</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6070,6 +7853,10 @@
         <x:v>Country: Germany
 Time: Aug 1997</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Aug 1997</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6082,6 +7869,10 @@
         <x:v>Country: Germany
 Time: Sep 1997</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Sep 1997</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6094,6 +7885,10 @@
         <x:v>Country: Germany
 Time: Oct 1997</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Oct 1997</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6106,6 +7901,10 @@
         <x:v>Country: Germany
 Time: Nov 1997</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Nov 1997</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6118,6 +7917,10 @@
         <x:v>Country: Germany
 Time: Dec 1997</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Dec 1997</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6130,6 +7933,10 @@
         <x:v>Country: Germany
 Time: 1998</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: 1998</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6142,6 +7949,10 @@
         <x:v>Country: Germany
 Time: Jan 1998</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jan 1998</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6154,6 +7965,10 @@
         <x:v>Country: Germany
 Time: Feb 1998</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Feb 1998</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6166,6 +7981,10 @@
         <x:v>Country: Germany
 Time: Mar 1998</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Mar 1998</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6178,6 +7997,10 @@
         <x:v>Country: Germany
 Time: Apr 1998</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Apr 1998</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6190,6 +8013,10 @@
         <x:v>Country: Germany
 Time: May 1998</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: May 1998</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6202,6 +8029,10 @@
         <x:v>Country: Germany
 Time: Jun 1998</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jun 1998</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6214,6 +8045,10 @@
         <x:v>Country: Germany
 Time: Jul 1998</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jul 1998</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6226,6 +8061,10 @@
         <x:v>Country: Germany
 Time: Aug 1998</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Aug 1998</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6238,6 +8077,10 @@
         <x:v>Country: Germany
 Time: Sep 1998</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Sep 1998</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6250,6 +8093,10 @@
         <x:v>Country: Germany
 Time: Oct 1998</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Oct 1998</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6262,6 +8109,10 @@
         <x:v>Country: Germany
 Time: Nov 1998</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Nov 1998</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6274,6 +8125,10 @@
         <x:v>Country: Germany
 Time: Dec 1998</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Dec 1998</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6286,6 +8141,10 @@
         <x:v>Country: Germany
 Time: 1999</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: 1999</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6298,6 +8157,10 @@
         <x:v>Country: Germany
 Time: Jan 1999</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jan 1999</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6310,6 +8173,10 @@
         <x:v>Country: Germany
 Time: Feb 1999</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Feb 1999</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6322,6 +8189,10 @@
         <x:v>Country: Germany
 Time: Mar 1999</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Mar 1999</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6334,6 +8205,10 @@
         <x:v>Country: Germany
 Time: Apr 1999</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Apr 1999</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6346,6 +8221,10 @@
         <x:v>Country: Germany
 Time: May 1999</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: May 1999</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6358,6 +8237,10 @@
         <x:v>Country: Germany
 Time: Jun 1999</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jun 1999</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6370,6 +8253,10 @@
         <x:v>Country: Germany
 Time: Jul 1999</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jul 1999</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6382,6 +8269,10 @@
         <x:v>Country: Germany
 Time: Aug 1999</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Aug 1999</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6394,6 +8285,10 @@
         <x:v>Country: Germany
 Time: Sep 1999</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Sep 1999</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6406,6 +8301,10 @@
         <x:v>Country: Germany
 Time: Oct 1999</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Oct 1999</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6418,6 +8317,10 @@
         <x:v>Country: Germany
 Time: Nov 1999</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Nov 1999</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6430,6 +8333,10 @@
         <x:v>Country: Germany
 Time: Dec 1999</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Dec 1999</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6442,6 +8349,10 @@
         <x:v>Country: Germany
 Time: 2000</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: 2000</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6454,6 +8365,10 @@
         <x:v>Country: Germany
 Time: Jan 2000</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jan 2000</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6466,6 +8381,10 @@
         <x:v>Country: Germany
 Time: Feb 2000</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Feb 2000</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6478,6 +8397,10 @@
         <x:v>Country: Germany
 Time: Mar 2000</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Mar 2000</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6490,6 +8413,10 @@
         <x:v>Country: Germany
 Time: Apr 2000</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Apr 2000</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6502,6 +8429,10 @@
         <x:v>Country: Germany
 Time: May 2000</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: May 2000</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6514,6 +8445,10 @@
         <x:v>Country: Germany
 Time: Jun 2000</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jun 2000</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6526,6 +8461,10 @@
         <x:v>Country: Germany
 Time: Jul 2000</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jul 2000</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6538,6 +8477,10 @@
         <x:v>Country: Germany
 Time: Aug 2000</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Aug 2000</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6550,6 +8493,10 @@
         <x:v>Country: Germany
 Time: Sep 2000</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Sep 2000</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6562,6 +8509,10 @@
         <x:v>Country: Germany
 Time: Oct 2000</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Oct 2000</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6574,6 +8525,10 @@
         <x:v>Country: Germany
 Time: Nov 2000</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Nov 2000</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6586,6 +8541,10 @@
         <x:v>Country: Germany
 Time: Dec 2000</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Dec 2000</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6598,6 +8557,10 @@
         <x:v>Country: Germany
 Time: 2001</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: 2001</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6610,6 +8573,10 @@
         <x:v>Country: Germany
 Time: Jan 2001</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jan 2001</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6622,6 +8589,10 @@
         <x:v>Country: Germany
 Time: Feb 2001</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Feb 2001</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6634,6 +8605,10 @@
         <x:v>Country: Germany
 Time: Mar 2001</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Mar 2001</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6646,6 +8621,10 @@
         <x:v>Country: Germany
 Time: Apr 2001</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Apr 2001</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6658,6 +8637,10 @@
         <x:v>Country: Germany
 Time: May 2001</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: May 2001</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6670,6 +8653,10 @@
         <x:v>Country: Germany
 Time: Jun 2001</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jun 2001</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6682,6 +8669,10 @@
         <x:v>Country: Germany
 Time: Jul 2001</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Jul 2001</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6694,6 +8685,10 @@
         <x:v>Country: Germany
 Time: Aug 2001</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Aug 2001</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6706,6 +8701,10 @@
         <x:v>Country: Germany
 Time: Sep 2001</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Sep 2001</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6718,6 +8717,10 @@
         <x:v>Country: Germany
 Time: Oct 2001</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Oct 2001</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6730,6 +8733,10 @@
         <x:v>Country: Germany
 Time: Nov 2001</x:v>
       </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Nov 2001</x:v>
+      </x:c>
     </x:row>
     <x:row customHeight="0">
       <x:c s="0" t="str">
@@ -6737,6 +8744,10 @@
       </x:c>
       <x:c s="0" t="str">
         <x:v>Dec 2001</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: Germany
+Time: Dec 2001</x:v>
       </x:c>
       <x:c s="0" t="str">
         <x:v>Country: Germany
